--- a/BomhcikReworked.xlsx
+++ b/BomhcikReworked.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\OvcharkaBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5CBC6A-9FE1-45EE-A669-B9C3E079F8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73B0AC1-8A40-4E24-81B8-5484271C3115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{212B5E66-6919-4642-AFBC-C80BC8E34A0E}"/>
   </bookViews>
@@ -567,262 +567,11 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1179,7 +928,7 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50:F51"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,10 +1002,12 @@
         <f>E2*2</f>
         <v>2</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1">
+        <v>6</v>
+      </c>
       <c r="H2" s="8">
         <f t="shared" ref="H2:H44" si="0">G2-F2</f>
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="I2" s="1">
         <v>4</v>
@@ -1266,7 +1017,7 @@
       <c r="L2" s="1"/>
       <c r="M2">
         <f t="shared" ref="M2:M10" si="1">G2/E2</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1289,10 +1040,12 @@
         <f t="shared" ref="F3:F50" si="2">E3*2</f>
         <v>20</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="7">
+        <v>20</v>
+      </c>
       <c r="H3" s="8">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="I3" s="7">
         <v>20</v>
@@ -1302,7 +1055,7 @@
       <c r="L3" s="7"/>
       <c r="M3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1325,10 +1078,12 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7">
+        <v>8</v>
+      </c>
       <c r="H4" s="8">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
         <v>8</v>
@@ -1338,7 +1093,7 @@
       <c r="L4" s="7"/>
       <c r="M4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1361,10 +1116,12 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7">
+        <v>10</v>
+      </c>
       <c r="H5" s="8">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
         <v>6</v>
@@ -1374,7 +1131,7 @@
       <c r="L5" s="7"/>
       <c r="M5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1397,10 +1154,12 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7">
+        <v>10</v>
+      </c>
       <c r="H6" s="8">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
         <v>10</v>
@@ -1410,7 +1169,7 @@
       <c r="L6" s="7"/>
       <c r="M6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1433,10 +1192,12 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7">
+        <v>20</v>
+      </c>
       <c r="H7" s="8">
         <f t="shared" si="0"/>
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
         <v>20</v>
@@ -1446,7 +1207,7 @@
       <c r="L7" s="7"/>
       <c r="M7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.8571428571428572</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1469,10 +1230,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7">
+        <v>5</v>
+      </c>
       <c r="H8" s="8">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
         <v>5</v>
@@ -1482,10 +1245,10 @@
       <c r="L8" s="7"/>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
@@ -1495,7 +1258,7 @@
       <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="7">
@@ -1541,10 +1304,12 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7">
+        <v>20</v>
+      </c>
       <c r="H10" s="8">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
         <v>20</v>
@@ -1554,7 +1319,7 @@
       <c r="L10" s="7"/>
       <c r="M10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1567,7 +1332,7 @@
       <c r="C11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="7">
@@ -1649,10 +1414,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
       <c r="H13" s="8">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I13" s="1">
         <v>4</v>
@@ -1662,7 +1429,7 @@
       <c r="L13" s="1"/>
       <c r="M13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -1685,10 +1452,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
       <c r="H14" s="8">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I14" s="1">
         <v>4</v>
@@ -1698,7 +1467,7 @@
       <c r="L14" s="1"/>
       <c r="M14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -1721,10 +1490,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1">
+        <v>4</v>
+      </c>
       <c r="H15" s="8">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I15" s="1">
         <v>4</v>
@@ -1734,7 +1505,7 @@
       <c r="L15" s="1"/>
       <c r="M15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -1755,10 +1526,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <v>4</v>
+      </c>
       <c r="H16" s="8">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I16" s="1">
         <v>4</v>
@@ -1768,7 +1541,7 @@
       <c r="L16" s="1"/>
       <c r="M16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -1863,10 +1636,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
       <c r="H19" s="8">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="1">
         <v>3</v>
@@ -1876,7 +1651,7 @@
       <c r="L19" s="1"/>
       <c r="M19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -1899,9 +1674,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
       <c r="H20" s="8">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>4</v>
@@ -2071,10 +1849,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G25" s="7"/>
+      <c r="G25" s="7">
+        <v>15</v>
+      </c>
       <c r="H25" s="8">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="I25" s="7">
         <v>15</v>
@@ -2084,7 +1864,7 @@
       <c r="L25" s="7"/>
       <c r="M25">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2107,10 +1887,12 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G26" s="7"/>
+      <c r="G26" s="7">
+        <v>10</v>
+      </c>
       <c r="H26" s="8">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
         <v>10</v>
@@ -2120,7 +1902,7 @@
       <c r="L26" s="7"/>
       <c r="M26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2143,10 +1925,12 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="G27" s="7"/>
+      <c r="G27" s="7">
+        <v>20</v>
+      </c>
       <c r="H27" s="8">
         <f t="shared" si="0"/>
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="I27" s="7">
         <v>20</v>
@@ -2156,7 +1940,7 @@
       <c r="L27" s="7"/>
       <c r="M27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.8571428571428572</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2177,10 +1961,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G28" s="7"/>
+      <c r="G28" s="7">
+        <v>5</v>
+      </c>
       <c r="H28" s="8">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="I28" s="7">
         <v>5</v>
@@ -2190,7 +1976,7 @@
       <c r="L28" s="7"/>
       <c r="M28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2213,10 +1999,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G29" s="7"/>
+      <c r="G29" s="7">
+        <v>10</v>
+      </c>
       <c r="H29" s="8">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="I29" s="7">
         <v>10</v>
@@ -2226,7 +2014,7 @@
       <c r="L29" s="7"/>
       <c r="M29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2249,10 +2037,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G30" s="7"/>
+      <c r="G30" s="7">
+        <v>5</v>
+      </c>
       <c r="H30" s="8">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="I30" s="7">
         <v>5</v>
@@ -2262,7 +2052,7 @@
       <c r="L30" s="7"/>
       <c r="M30">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2285,10 +2075,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G31" s="7"/>
+      <c r="G31" s="7">
+        <v>10</v>
+      </c>
       <c r="H31" s="8">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="I31" s="7">
         <v>10</v>
@@ -2298,7 +2090,7 @@
       <c r="L31" s="7"/>
       <c r="M31">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2321,10 +2113,12 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G32" s="7"/>
+      <c r="G32" s="7">
+        <v>10</v>
+      </c>
       <c r="H32" s="8">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="I32" s="7">
         <v>10</v>
@@ -2334,7 +2128,7 @@
       <c r="L32" s="7"/>
       <c r="M32">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2357,10 +2151,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G33" s="7"/>
+      <c r="G33" s="7">
+        <v>10</v>
+      </c>
       <c r="H33" s="8">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="I33" s="7">
         <v>10</v>
@@ -2370,7 +2166,7 @@
       <c r="L33" s="7"/>
       <c r="M33">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2393,10 +2189,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G34" s="7"/>
+      <c r="G34" s="7">
+        <v>10</v>
+      </c>
       <c r="H34" s="8">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="I34" s="7">
         <v>10</v>
@@ -2406,7 +2204,7 @@
       <c r="L34" s="7"/>
       <c r="M34">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2429,10 +2227,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G35" s="7"/>
+      <c r="G35" s="7">
+        <v>5</v>
+      </c>
       <c r="H35" s="8">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="I35" s="7">
         <v>5</v>
@@ -2442,7 +2242,7 @@
       <c r="L35" s="7"/>
       <c r="M35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2501,10 +2301,12 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G37" s="7"/>
+      <c r="G37" s="7">
+        <v>6</v>
+      </c>
       <c r="H37" s="8">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="I37" s="7">
         <v>6</v>
@@ -2514,7 +2316,7 @@
       <c r="L37" s="7"/>
       <c r="M37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2537,10 +2339,12 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1">
+        <v>3</v>
+      </c>
       <c r="H38" s="8">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="I38" s="1">
         <v>19</v>
@@ -2550,7 +2354,7 @@
       <c r="L38" s="1"/>
       <c r="M38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -2571,10 +2375,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1">
+        <v>4</v>
+      </c>
       <c r="H39" s="8">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I39" s="1">
         <v>4</v>
@@ -2584,7 +2390,7 @@
       <c r="L39" s="1"/>
       <c r="M39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2645,10 +2451,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G41" s="1"/>
+      <c r="G41" s="1">
+        <v>5</v>
+      </c>
       <c r="H41" s="8">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="I41" s="1">
         <v>4</v>
@@ -2658,7 +2466,7 @@
       <c r="L41" s="1"/>
       <c r="M41">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2679,10 +2487,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G42" s="1"/>
+      <c r="G42" s="1">
+        <v>11</v>
+      </c>
       <c r="H42" s="8">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="I42" s="1">
         <v>11</v>
@@ -2692,7 +2502,7 @@
       <c r="L42" s="1"/>
       <c r="M42">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2715,10 +2525,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G43" s="1"/>
+      <c r="G43" s="1">
+        <v>68</v>
+      </c>
       <c r="H43" s="8">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>66</v>
       </c>
       <c r="I43" s="1">
         <v>67</v>
@@ -2728,7 +2540,7 @@
       <c r="L43" s="1"/>
       <c r="M43">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2986,24 +2798,16 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:H20">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThan">
+  <conditionalFormatting sqref="H2:H50">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21:H50">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I228">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>I2&gt;H2*(-1)</formula>
     </cfRule>
   </conditionalFormatting>
